--- a/src/main/resources/Data/Raw Data/강남구/총무과/2023년 10월 업무추진비 공개_(총무과).xlsx
+++ b/src/main/resources/Data/Raw Data/강남구/총무과/2023년 10월 업무추진비 공개_(총무과).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\2023년 총무과\업무추진비\예산집행 모니터링 업무추진비 공개\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IDE\sts-4.23.1.RELEASE\work\FreeMeal\src\main\resources\Data\Raw Data\강남구\총무과\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F9338-2D92-4523-B4B6-5ECAFE224757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="구청장" sheetId="1" r:id="rId1"/>
@@ -23,12 +24,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">시책추진업무추진비!$A$4:$H$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">행정국장!$A$4:$H$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="427">
   <si>
     <t>승인일</t>
   </si>
@@ -1402,7 +1403,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -1592,7 +1593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1691,17 +1692,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1717,7 +1707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1850,6 +1840,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1865,83 +1888,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 2" xfId="1"/>
-    <cellStyle name="쉼표 [0] 3" xfId="2"/>
+    <cellStyle name="쉼표 [0] 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="쉼표 [0] 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2219,11 +2188,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2240,29 +2209,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1"/>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -2569,12 +2538,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H30">
-    <sortState ref="A5:I64">
+  <autoFilter ref="A4:H30" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I64">
       <sortCondition ref="B4:B49"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A5:H47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H47">
     <sortCondition ref="B5:B47"/>
     <sortCondition ref="C5:C47"/>
   </sortState>
@@ -2589,10 +2558,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -2610,28 +2579,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -3346,8 +3315,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H29"/>
-  <sortState ref="A5:I42">
+  <autoFilter ref="A4:H29" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I42">
     <sortCondition ref="B4"/>
   </sortState>
   <mergeCells count="2">
@@ -3361,11 +3330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3382,28 +3351,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="59" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -3441,10 +3410,10 @@
       <c r="C5" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="61" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="61" t="s">
         <v>247</v>
       </c>
       <c r="F5" s="18">
@@ -3467,8 +3436,12 @@
       <c r="C6" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="D6" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>247</v>
+      </c>
       <c r="F6" s="18">
         <v>10000</v>
       </c>
@@ -3489,8 +3462,12 @@
       <c r="C7" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="D7" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>247</v>
+      </c>
       <c r="F7" s="18">
         <v>17000</v>
       </c>
@@ -3511,8 +3488,12 @@
       <c r="C8" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="D8" s="61" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>247</v>
+      </c>
       <c r="F8" s="18">
         <v>20000</v>
       </c>
@@ -3533,10 +3514,10 @@
       <c r="C9" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="62" t="s">
         <v>257</v>
       </c>
       <c r="F9" s="18">
@@ -3559,8 +3540,12 @@
       <c r="C10" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="52"/>
+      <c r="D10" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>257</v>
+      </c>
       <c r="F10" s="18">
         <v>7300</v>
       </c>
@@ -3650,13 +3635,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.26" right="0.17" top="0.56999999999999995" bottom="0.32" header="0.3" footer="0.3"/>
@@ -3665,11 +3646,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="44.25" customHeight="1"/>
@@ -3686,29 +3667,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1"/>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="30" t="s">
@@ -3740,7 +3721,7 @@
       <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="44">
         <v>45203</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -3752,13 +3733,13 @@
       <c r="E5" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="45">
         <v>214000</v>
       </c>
       <c r="G5" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3766,7 +3747,7 @@
       <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="44">
         <v>45203</v>
       </c>
       <c r="C6" s="36" t="s">
@@ -3778,13 +3759,13 @@
       <c r="E6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="45">
         <v>60000</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3792,7 +3773,7 @@
       <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="44">
         <v>45204</v>
       </c>
       <c r="C7" s="36" t="s">
@@ -3804,13 +3785,13 @@
       <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="45">
         <v>60000</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="H7" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3818,7 +3799,7 @@
       <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="44">
         <v>45204</v>
       </c>
       <c r="C8" s="36" t="s">
@@ -3830,13 +3811,13 @@
       <c r="E8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="56">
+      <c r="F8" s="45">
         <v>114000</v>
       </c>
       <c r="G8" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="H8" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3844,25 +3825,25 @@
       <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="44">
         <v>45204</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="52" t="s">
         <v>278</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="58">
+      <c r="F9" s="47">
         <v>233000</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="H9" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3870,25 +3851,25 @@
       <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="60">
+      <c r="B10" s="63">
         <v>45204</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="64" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="58">
+      <c r="F10" s="47">
         <v>150000</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3896,19 +3877,25 @@
       <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="62" t="s">
+      <c r="B11" s="63">
+        <v>45204</v>
+      </c>
+      <c r="C11" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="56">
+      <c r="D11" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="45">
         <v>18000</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="H11" s="57" t="s">
+      <c r="H11" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3916,10 +3903,10 @@
       <c r="A12" s="23">
         <v>8</v>
       </c>
-      <c r="B12" s="63">
+      <c r="B12" s="50">
         <v>45205</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="49" t="s">
         <v>285</v>
       </c>
       <c r="D12" s="17" t="s">
@@ -3928,13 +3915,13 @@
       <c r="E12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="45">
         <v>149000</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H12" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3942,10 +3929,10 @@
       <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B13" s="50">
         <v>45205</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="49" t="s">
         <v>288</v>
       </c>
       <c r="D13" s="17" t="s">
@@ -3954,13 +3941,13 @@
       <c r="E13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="45">
         <v>65000</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3968,10 +3955,10 @@
       <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="50">
         <v>45205</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="49" t="s">
         <v>291</v>
       </c>
       <c r="D14" s="17" t="s">
@@ -3980,13 +3967,13 @@
       <c r="E14" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="45">
         <v>123000</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H14" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3994,25 +3981,25 @@
       <c r="A15" s="23">
         <v>11</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="65">
         <v>45205</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="49" t="s">
         <v>293</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="45">
         <v>151500</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4020,19 +4007,25 @@
       <c r="A16" s="23">
         <v>12</v>
       </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="65">
+        <v>45205</v>
+      </c>
+      <c r="C16" s="49" t="s">
         <v>297</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="56">
+      <c r="D16" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" s="45">
         <v>33000</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4040,19 +4033,25 @@
       <c r="A17" s="23">
         <v>13</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="62" t="s">
+      <c r="B17" s="65">
+        <v>45205</v>
+      </c>
+      <c r="C17" s="49" t="s">
         <v>298</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="56">
+      <c r="D17" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="45">
         <v>47000</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4060,10 +4059,10 @@
       <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="63">
+      <c r="B18" s="50">
         <v>45205</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="49" t="s">
         <v>299</v>
       </c>
       <c r="D18" s="17" t="s">
@@ -4072,13 +4071,13 @@
       <c r="E18" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="56">
+      <c r="F18" s="45">
         <v>114000</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4086,25 +4085,25 @@
       <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="B19" s="64">
+      <c r="B19" s="65">
         <v>45206</v>
       </c>
-      <c r="C19" s="62" t="s">
+      <c r="C19" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="61" t="s">
         <v>303</v>
       </c>
-      <c r="E19" s="49" t="s">
+      <c r="E19" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="56">
+      <c r="F19" s="45">
         <v>20300</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4112,19 +4111,25 @@
       <c r="A20" s="23">
         <v>16</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="65">
+        <v>45206</v>
+      </c>
+      <c r="C20" s="49" t="s">
         <v>306</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="56">
+      <c r="D20" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="F20" s="45">
         <v>230000</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="H20" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4132,19 +4137,25 @@
       <c r="A21" s="23">
         <v>17</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="62" t="s">
+      <c r="B21" s="65">
+        <v>45206</v>
+      </c>
+      <c r="C21" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="56">
+      <c r="D21" s="61" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="F21" s="45">
         <v>23700</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="H21" s="57" t="s">
+      <c r="H21" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4152,25 +4163,25 @@
       <c r="A22" s="23">
         <v>18</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="65">
         <v>45207</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="F22" s="56">
+      <c r="F22" s="45">
         <v>75000</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>312</v>
       </c>
-      <c r="H22" s="57" t="s">
+      <c r="H22" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4178,19 +4189,25 @@
       <c r="A23" s="23">
         <v>19</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="65">
+        <v>45207</v>
+      </c>
+      <c r="C23" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="56">
+      <c r="D23" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="F23" s="45">
         <v>27500</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4198,19 +4215,25 @@
       <c r="A24" s="23">
         <v>20</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="62" t="s">
+      <c r="B24" s="65">
+        <v>45207</v>
+      </c>
+      <c r="C24" s="49" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="56">
+      <c r="D24" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" s="61" t="s">
+        <v>311</v>
+      </c>
+      <c r="F24" s="45">
         <v>15000</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="H24" s="57" t="s">
+      <c r="H24" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4218,10 +4241,10 @@
       <c r="A25" s="23">
         <v>21</v>
       </c>
-      <c r="B25" s="63">
+      <c r="B25" s="50">
         <v>45209</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="49" t="s">
         <v>316</v>
       </c>
       <c r="D25" s="17" t="s">
@@ -4230,13 +4253,13 @@
       <c r="E25" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="56">
+      <c r="F25" s="45">
         <v>71500</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="H25" s="57" t="s">
+      <c r="H25" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4244,10 +4267,10 @@
       <c r="A26" s="23">
         <v>22</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="50">
         <v>45209</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="49" t="s">
         <v>319</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -4256,13 +4279,13 @@
       <c r="E26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="56">
+      <c r="F26" s="45">
         <v>48800</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="H26" s="57" t="s">
+      <c r="H26" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4270,10 +4293,10 @@
       <c r="A27" s="23">
         <v>23</v>
       </c>
-      <c r="B27" s="63">
+      <c r="B27" s="50">
         <v>45209</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="49" t="s">
         <v>322</v>
       </c>
       <c r="D27" s="17" t="s">
@@ -4282,13 +4305,13 @@
       <c r="E27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="56">
+      <c r="F27" s="45">
         <v>66000</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="H27" s="57" t="s">
+      <c r="H27" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4296,10 +4319,10 @@
       <c r="A28" s="23">
         <v>24</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="50">
         <v>45209</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="49" t="s">
         <v>325</v>
       </c>
       <c r="D28" s="17" t="s">
@@ -4308,13 +4331,13 @@
       <c r="E28" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="45">
         <v>340000</v>
       </c>
       <c r="G28" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4322,10 +4345,10 @@
       <c r="A29" s="23">
         <v>25</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="49" t="s">
         <v>328</v>
       </c>
       <c r="D29" s="17" t="s">
@@ -4334,13 +4357,13 @@
       <c r="E29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="45">
         <v>74000</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="H29" s="57" t="s">
+      <c r="H29" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4348,10 +4371,10 @@
       <c r="A30" s="23">
         <v>26</v>
       </c>
-      <c r="B30" s="63">
+      <c r="B30" s="50">
         <v>45211</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="49" t="s">
         <v>331</v>
       </c>
       <c r="D30" s="17" t="s">
@@ -4360,13 +4383,13 @@
       <c r="E30" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="45">
         <v>185000</v>
       </c>
       <c r="G30" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="H30" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4374,10 +4397,10 @@
       <c r="A31" s="23">
         <v>27</v>
       </c>
-      <c r="B31" s="63">
+      <c r="B31" s="50">
         <v>45211</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="49" t="s">
         <v>334</v>
       </c>
       <c r="D31" s="17" t="s">
@@ -4386,13 +4409,13 @@
       <c r="E31" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="45">
         <v>54000</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="H31" s="57" t="s">
+      <c r="H31" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4400,10 +4423,10 @@
       <c r="A32" s="23">
         <v>28</v>
       </c>
-      <c r="B32" s="63">
+      <c r="B32" s="50">
         <v>45212</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="49" t="s">
         <v>337</v>
       </c>
       <c r="D32" s="17" t="s">
@@ -4412,13 +4435,13 @@
       <c r="E32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="45">
         <v>44000</v>
       </c>
       <c r="G32" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="H32" s="57" t="s">
+      <c r="H32" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4426,10 +4449,10 @@
       <c r="A33" s="23">
         <v>29</v>
       </c>
-      <c r="B33" s="63">
+      <c r="B33" s="50">
         <v>45212</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="49" t="s">
         <v>340</v>
       </c>
       <c r="D33" s="17" t="s">
@@ -4438,13 +4461,13 @@
       <c r="E33" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="45">
         <v>38000</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="H33" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4452,10 +4475,10 @@
       <c r="A34" s="23">
         <v>30</v>
       </c>
-      <c r="B34" s="63">
+      <c r="B34" s="50">
         <v>45212</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="49" t="s">
         <v>343</v>
       </c>
       <c r="D34" s="17" t="s">
@@ -4464,13 +4487,13 @@
       <c r="E34" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="45">
         <v>57000</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="H34" s="57" t="s">
+      <c r="H34" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4478,10 +4501,10 @@
       <c r="A35" s="23">
         <v>31</v>
       </c>
-      <c r="B35" s="63">
+      <c r="B35" s="50">
         <v>45212</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="49" t="s">
         <v>346</v>
       </c>
       <c r="D35" s="17" t="s">
@@ -4490,13 +4513,13 @@
       <c r="E35" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="56">
+      <c r="F35" s="45">
         <v>44000</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="H35" s="57" t="s">
+      <c r="H35" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4504,10 +4527,10 @@
       <c r="A36" s="23">
         <v>32</v>
       </c>
-      <c r="B36" s="63">
+      <c r="B36" s="50">
         <v>45212</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="49" t="s">
         <v>349</v>
       </c>
       <c r="D36" s="17" t="s">
@@ -4516,13 +4539,13 @@
       <c r="E36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="45">
         <v>266000</v>
       </c>
       <c r="G36" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4530,10 +4553,10 @@
       <c r="A37" s="23">
         <v>33</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="49" t="s">
         <v>352</v>
       </c>
       <c r="D37" s="17" t="s">
@@ -4542,13 +4565,13 @@
       <c r="E37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="45">
         <v>60000</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="H37" s="57" t="s">
+      <c r="H37" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4556,10 +4579,10 @@
       <c r="A38" s="23">
         <v>34</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="49" t="s">
         <v>355</v>
       </c>
       <c r="D38" s="17" t="s">
@@ -4568,13 +4591,13 @@
       <c r="E38" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="45">
         <v>54000</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="H38" s="57" t="s">
+      <c r="H38" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4582,25 +4605,25 @@
       <c r="A39" s="23">
         <v>35</v>
       </c>
-      <c r="B39" s="64">
+      <c r="B39" s="65">
         <v>45217</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="D39" s="49" t="s">
+      <c r="D39" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="E39" s="49" t="s">
+      <c r="E39" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="45">
         <v>202000</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="57" t="s">
+      <c r="H39" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4608,19 +4631,25 @@
       <c r="A40" s="23">
         <v>36</v>
       </c>
-      <c r="B40" s="66"/>
-      <c r="C40" s="62" t="s">
+      <c r="B40" s="65">
+        <v>45217</v>
+      </c>
+      <c r="C40" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="56">
+      <c r="D40" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="E40" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="45">
         <v>42800</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="H40" s="57" t="s">
+      <c r="H40" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4628,10 +4657,10 @@
       <c r="A41" s="23">
         <v>37</v>
       </c>
-      <c r="B41" s="63">
+      <c r="B41" s="50">
         <v>45217</v>
       </c>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="49" t="s">
         <v>362</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -4640,13 +4669,13 @@
       <c r="E41" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="45">
         <v>208000</v>
       </c>
       <c r="G41" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="H41" s="57" t="s">
+      <c r="H41" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4654,10 +4683,10 @@
       <c r="A42" s="23">
         <v>38</v>
       </c>
-      <c r="B42" s="63">
+      <c r="B42" s="50">
         <v>45217</v>
       </c>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="49" t="s">
         <v>365</v>
       </c>
       <c r="D42" s="17" t="s">
@@ -4666,13 +4695,13 @@
       <c r="E42" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42" s="45">
         <v>158000</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4680,10 +4709,10 @@
       <c r="A43" s="23">
         <v>39</v>
       </c>
-      <c r="B43" s="63">
+      <c r="B43" s="50">
         <v>45218</v>
       </c>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="49" t="s">
         <v>367</v>
       </c>
       <c r="D43" s="17" t="s">
@@ -4692,13 +4721,13 @@
       <c r="E43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="56">
+      <c r="F43" s="45">
         <v>98000</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="H43" s="57" t="s">
+      <c r="H43" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4706,10 +4735,10 @@
       <c r="A44" s="23">
         <v>40</v>
       </c>
-      <c r="B44" s="63">
+      <c r="B44" s="50">
         <v>45218</v>
       </c>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="49" t="s">
         <v>370</v>
       </c>
       <c r="D44" s="17" t="s">
@@ -4718,13 +4747,13 @@
       <c r="E44" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F44" s="45">
         <v>51000</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="H44" s="57" t="s">
+      <c r="H44" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4732,10 +4761,10 @@
       <c r="A45" s="23">
         <v>41</v>
       </c>
-      <c r="B45" s="63">
+      <c r="B45" s="50">
         <v>45219</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="49" t="s">
         <v>372</v>
       </c>
       <c r="D45" s="17" t="s">
@@ -4744,13 +4773,13 @@
       <c r="E45" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F45" s="56">
+      <c r="F45" s="45">
         <v>456000</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="H45" s="57" t="s">
+      <c r="H45" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4758,10 +4787,10 @@
       <c r="A46" s="23">
         <v>42</v>
       </c>
-      <c r="B46" s="63">
+      <c r="B46" s="50">
         <v>45219</v>
       </c>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="49" t="s">
         <v>375</v>
       </c>
       <c r="D46" s="17" t="s">
@@ -4770,13 +4799,13 @@
       <c r="E46" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="56">
+      <c r="F46" s="45">
         <v>54000</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="H46" s="57" t="s">
+      <c r="H46" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4784,10 +4813,10 @@
       <c r="A47" s="23">
         <v>43</v>
       </c>
-      <c r="B47" s="63">
+      <c r="B47" s="50">
         <v>45222</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="49" t="s">
         <v>378</v>
       </c>
       <c r="D47" s="17" t="s">
@@ -4796,13 +4825,13 @@
       <c r="E47" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="56">
+      <c r="F47" s="45">
         <v>319000</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="H47" s="57" t="s">
+      <c r="H47" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4810,10 +4839,10 @@
       <c r="A48" s="23">
         <v>44</v>
       </c>
-      <c r="B48" s="63">
+      <c r="B48" s="50">
         <v>45222</v>
       </c>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="49" t="s">
         <v>380</v>
       </c>
       <c r="D48" s="17" t="s">
@@ -4822,13 +4851,13 @@
       <c r="E48" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="56">
+      <c r="F48" s="45">
         <v>212000</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="H48" s="57" t="s">
+      <c r="H48" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4836,10 +4865,10 @@
       <c r="A49" s="23">
         <v>45</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="49" t="s">
         <v>382</v>
       </c>
       <c r="D49" s="17" t="s">
@@ -4848,13 +4877,13 @@
       <c r="E49" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="56">
+      <c r="F49" s="45">
         <v>32000</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>384</v>
       </c>
-      <c r="H49" s="57" t="s">
+      <c r="H49" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4862,10 +4891,10 @@
       <c r="A50" s="23">
         <v>46</v>
       </c>
-      <c r="B50" s="63">
+      <c r="B50" s="50">
         <v>45224</v>
       </c>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="49" t="s">
         <v>385</v>
       </c>
       <c r="D50" s="17" t="s">
@@ -4874,13 +4903,13 @@
       <c r="E50" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F50" s="56">
+      <c r="F50" s="45">
         <v>56000</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="H50" s="57" t="s">
+      <c r="H50" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4888,10 +4917,10 @@
       <c r="A51" s="23">
         <v>47</v>
       </c>
-      <c r="B51" s="63">
+      <c r="B51" s="50">
         <v>45225</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="49" t="s">
         <v>387</v>
       </c>
       <c r="D51" s="17" t="s">
@@ -4900,13 +4929,13 @@
       <c r="E51" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="F51" s="56">
+      <c r="F51" s="45">
         <v>135000</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H51" s="57" t="s">
+      <c r="H51" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4914,10 +4943,10 @@
       <c r="A52" s="23">
         <v>48</v>
       </c>
-      <c r="B52" s="63">
+      <c r="B52" s="50">
         <v>45225</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="49" t="s">
         <v>388</v>
       </c>
       <c r="D52" s="17" t="s">
@@ -4926,13 +4955,13 @@
       <c r="E52" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F52" s="56">
+      <c r="F52" s="45">
         <v>110000</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="H52" s="57" t="s">
+      <c r="H52" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4940,10 +4969,10 @@
       <c r="A53" s="23">
         <v>49</v>
       </c>
-      <c r="B53" s="63">
+      <c r="B53" s="50">
         <v>45225</v>
       </c>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="49" t="s">
         <v>391</v>
       </c>
       <c r="D53" s="17" t="s">
@@ -4952,13 +4981,13 @@
       <c r="E53" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F53" s="56">
+      <c r="F53" s="45">
         <v>240000</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="H53" s="57" t="s">
+      <c r="H53" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4966,10 +4995,10 @@
       <c r="A54" s="23">
         <v>50</v>
       </c>
-      <c r="B54" s="63">
+      <c r="B54" s="50">
         <v>45226</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="51" t="s">
         <v>394</v>
       </c>
       <c r="D54" s="17" t="s">
@@ -4978,13 +5007,13 @@
       <c r="E54" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F54" s="56">
+      <c r="F54" s="45">
         <v>32000</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="H54" s="57" t="s">
+      <c r="H54" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4992,10 +5021,10 @@
       <c r="A55" s="23">
         <v>51</v>
       </c>
-      <c r="B55" s="63">
+      <c r="B55" s="50">
         <v>45226</v>
       </c>
-      <c r="C55" s="62" t="s">
+      <c r="C55" s="49" t="s">
         <v>397</v>
       </c>
       <c r="D55" s="17" t="s">
@@ -5004,13 +5033,13 @@
       <c r="E55" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="56">
+      <c r="F55" s="45">
         <v>275000</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="H55" s="57" t="s">
+      <c r="H55" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5018,10 +5047,10 @@
       <c r="A56" s="23">
         <v>52</v>
       </c>
-      <c r="B56" s="63">
+      <c r="B56" s="50">
         <v>45226</v>
       </c>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="49" t="s">
         <v>399</v>
       </c>
       <c r="D56" s="17" t="s">
@@ -5030,13 +5059,13 @@
       <c r="E56" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="56">
+      <c r="F56" s="45">
         <v>57000</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H56" s="57" t="s">
+      <c r="H56" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5044,10 +5073,10 @@
       <c r="A57" s="23">
         <v>53</v>
       </c>
-      <c r="B57" s="63">
+      <c r="B57" s="50">
         <v>45226</v>
       </c>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="49" t="s">
         <v>401</v>
       </c>
       <c r="D57" s="17" t="s">
@@ -5056,13 +5085,13 @@
       <c r="E57" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="56">
+      <c r="F57" s="45">
         <v>36000</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>403</v>
       </c>
-      <c r="H57" s="57" t="s">
+      <c r="H57" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5070,10 +5099,10 @@
       <c r="A58" s="23">
         <v>54</v>
       </c>
-      <c r="B58" s="63">
+      <c r="B58" s="50">
         <v>45229</v>
       </c>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="49" t="s">
         <v>404</v>
       </c>
       <c r="D58" s="17" t="s">
@@ -5082,13 +5111,13 @@
       <c r="E58" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F58" s="56">
+      <c r="F58" s="45">
         <v>54000</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="H58" s="57" t="s">
+      <c r="H58" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5096,10 +5125,10 @@
       <c r="A59" s="23">
         <v>55</v>
       </c>
-      <c r="B59" s="63">
+      <c r="B59" s="50">
         <v>45229</v>
       </c>
-      <c r="C59" s="62" t="s">
+      <c r="C59" s="49" t="s">
         <v>406</v>
       </c>
       <c r="D59" s="17" t="s">
@@ -5108,13 +5137,13 @@
       <c r="E59" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="56">
+      <c r="F59" s="45">
         <v>120000</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="H59" s="57" t="s">
+      <c r="H59" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5122,10 +5151,10 @@
       <c r="A60" s="23">
         <v>56</v>
       </c>
-      <c r="B60" s="63">
+      <c r="B60" s="50">
         <v>45229</v>
       </c>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="49" t="s">
         <v>409</v>
       </c>
       <c r="D60" s="17" t="s">
@@ -5134,13 +5163,13 @@
       <c r="E60" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="56">
+      <c r="F60" s="45">
         <v>260000</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="H60" s="57" t="s">
+      <c r="H60" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5148,10 +5177,10 @@
       <c r="A61" s="23">
         <v>57</v>
       </c>
-      <c r="B61" s="63">
+      <c r="B61" s="50">
         <v>45230</v>
       </c>
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="49" t="s">
         <v>412</v>
       </c>
       <c r="D61" s="17" t="s">
@@ -5160,13 +5189,13 @@
       <c r="E61" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F61" s="56">
+      <c r="F61" s="45">
         <v>50000</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="H61" s="57" t="s">
+      <c r="H61" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5174,10 +5203,10 @@
       <c r="A62" s="23">
         <v>58</v>
       </c>
-      <c r="B62" s="63">
+      <c r="B62" s="50">
         <v>45230</v>
       </c>
-      <c r="C62" s="62" t="s">
+      <c r="C62" s="49" t="s">
         <v>415</v>
       </c>
       <c r="D62" s="17" t="s">
@@ -5186,13 +5215,13 @@
       <c r="E62" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F62" s="56">
+      <c r="F62" s="45">
         <v>50000</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="H62" s="57" t="s">
+      <c r="H62" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5200,10 +5229,10 @@
       <c r="A63" s="23">
         <v>59</v>
       </c>
-      <c r="B63" s="63">
+      <c r="B63" s="50">
         <v>45230</v>
       </c>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="49" t="s">
         <v>417</v>
       </c>
       <c r="D63" s="17" t="s">
@@ -5212,13 +5241,13 @@
       <c r="E63" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="56">
+      <c r="F63" s="45">
         <v>62000</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>419</v>
       </c>
-      <c r="H63" s="57" t="s">
+      <c r="H63" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5226,10 +5255,10 @@
       <c r="A64" s="23">
         <v>60</v>
       </c>
-      <c r="B64" s="63">
+      <c r="B64" s="50">
         <v>45230</v>
       </c>
-      <c r="C64" s="62" t="s">
+      <c r="C64" s="49" t="s">
         <v>420</v>
       </c>
       <c r="D64" s="17" t="s">
@@ -5238,13 +5267,13 @@
       <c r="E64" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="F64" s="56">
+      <c r="F64" s="45">
         <v>468200</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>422</v>
       </c>
-      <c r="H64" s="57" t="s">
+      <c r="H64" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5252,10 +5281,10 @@
       <c r="A65" s="23">
         <v>61</v>
       </c>
-      <c r="B65" s="63">
+      <c r="B65" s="50">
         <v>45230</v>
       </c>
-      <c r="C65" s="62" t="s">
+      <c r="C65" s="49" t="s">
         <v>423</v>
       </c>
       <c r="D65" s="17" t="s">
@@ -5264,13 +5293,13 @@
       <c r="E65" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="56">
+      <c r="F65" s="45">
         <v>43000</v>
       </c>
       <c r="G65" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="H65" s="57" t="s">
+      <c r="H65" s="46" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5284,7 +5313,7 @@
       <c r="C66" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D66" s="71" t="s">
+      <c r="D66" s="53" t="s">
         <v>111</v>
       </c>
       <c r="E66" s="42" t="s">
@@ -5310,7 +5339,7 @@
       <c r="C67" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="71" t="s">
+      <c r="D67" s="53" t="s">
         <v>120</v>
       </c>
       <c r="E67" s="42" t="s">
@@ -5336,7 +5365,7 @@
       <c r="C68" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="71" t="s">
+      <c r="D68" s="53" t="s">
         <v>110</v>
       </c>
       <c r="E68" s="42" t="s">
@@ -5362,7 +5391,7 @@
       <c r="C69" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D69" s="71" t="s">
+      <c r="D69" s="53" t="s">
         <v>425</v>
       </c>
       <c r="E69" s="42" t="s">
@@ -5388,7 +5417,7 @@
       <c r="C70" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="D70" s="71" t="s">
+      <c r="D70" s="53" t="s">
         <v>111</v>
       </c>
       <c r="E70" s="42" t="s">
@@ -5414,7 +5443,7 @@
       <c r="C71" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D71" s="71" t="s">
+      <c r="D71" s="53" t="s">
         <v>426</v>
       </c>
       <c r="E71" s="42" t="s">
@@ -5440,7 +5469,7 @@
       <c r="C72" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D72" s="71" t="s">
+      <c r="D72" s="53" t="s">
         <v>426</v>
       </c>
       <c r="E72" s="42" t="s">
@@ -5544,7 +5573,7 @@
       <c r="C76" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D76" s="71" t="s">
+      <c r="D76" s="53" t="s">
         <v>119</v>
       </c>
       <c r="E76" s="42" t="s">
@@ -5596,7 +5625,7 @@
       <c r="C78" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D78" s="71" t="s">
+      <c r="D78" s="53" t="s">
         <v>111</v>
       </c>
       <c r="E78" s="42" t="s">
@@ -5622,7 +5651,7 @@
       <c r="C79" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D79" s="53" t="s">
         <v>114</v>
       </c>
       <c r="E79" s="42" t="s">
@@ -5648,7 +5677,7 @@
       <c r="C80" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D80" s="53" t="s">
         <v>425</v>
       </c>
       <c r="E80" s="42" t="s">
@@ -5674,7 +5703,7 @@
       <c r="C81" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="D81" s="71" t="s">
+      <c r="D81" s="53" t="s">
         <v>116</v>
       </c>
       <c r="E81" s="42" t="s">
@@ -5700,7 +5729,7 @@
       <c r="C82" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D82" s="71" t="s">
+      <c r="D82" s="53" t="s">
         <v>109</v>
       </c>
       <c r="E82" s="42" t="s">
@@ -5726,7 +5755,7 @@
       <c r="C83" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D83" s="71" t="s">
+      <c r="D83" s="53" t="s">
         <v>127</v>
       </c>
       <c r="E83" s="42" t="s">
@@ -5752,7 +5781,7 @@
       <c r="C84" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D84" s="71" t="s">
+      <c r="D84" s="53" t="s">
         <v>109</v>
       </c>
       <c r="E84" s="42" t="s">
@@ -5804,7 +5833,7 @@
       <c r="C86" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D86" s="71" t="s">
+      <c r="D86" s="53" t="s">
         <v>114</v>
       </c>
       <c r="E86" s="42" t="s">
@@ -5856,7 +5885,7 @@
       <c r="C88" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D88" s="71" t="s">
+      <c r="D88" s="53" t="s">
         <v>122</v>
       </c>
       <c r="E88" s="42" t="s">
@@ -5885,7 +5914,7 @@
       <c r="D89" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="E89" s="72" t="s">
+      <c r="E89" s="54" t="s">
         <v>131</v>
       </c>
       <c r="F89" s="37">
@@ -5908,10 +5937,10 @@
       <c r="C90" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D90" s="71" t="s">
+      <c r="D90" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="E90" s="72" t="s">
+      <c r="E90" s="54" t="s">
         <v>124</v>
       </c>
       <c r="F90" s="37">
@@ -5934,7 +5963,7 @@
       <c r="C91" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D91" s="71" t="s">
+      <c r="D91" s="53" t="s">
         <v>111</v>
       </c>
       <c r="E91" s="17" t="s">
@@ -5960,7 +5989,7 @@
       <c r="C92" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D92" s="71" t="s">
+      <c r="D92" s="53" t="s">
         <v>122</v>
       </c>
       <c r="E92" s="17" t="s">
@@ -6003,33 +6032,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H4">
-    <sortState ref="A5:H74">
+  <autoFilter ref="A4:H4" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H74">
       <sortCondition ref="A4"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A5:H75">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H75">
     <sortCondition ref="B5:B75"/>
     <sortCondition ref="C5:C75"/>
   </sortState>
-  <mergeCells count="17">
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.26" right="0.17" top="0.59" bottom="0.32" header="0.3" footer="0.3"/>
